--- a/Solutions/solution_models_HP98_Tpz.xlsx
+++ b/Solutions/solution_models_HP98_Tpz.xlsx
@@ -5,47 +5,49 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_02_06\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_05_12\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7AD7D6-D2BD-4979-9361-D4BDD59DE3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3128AA6-21EA-4FAA-B8A5-02DF26211D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45660" yWindow="765" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
+    <workbookView xWindow="46500" yWindow="3885" windowWidth="28470" windowHeight="14385" activeTab="2" xr2:uid="{55A889F7-7CAF-4A87-AAEA-07BFCD9152AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Topaz" sheetId="44" r:id="rId1"/>
-    <sheet name="Fluid-KCl-NaCl-HF-H2O" sheetId="45" r:id="rId2"/>
-    <sheet name="Fluid(HF)" sheetId="46" r:id="rId3"/>
-    <sheet name="Orthopyroxene" sheetId="1" r:id="rId4"/>
-    <sheet name="Olivine" sheetId="2" r:id="rId5"/>
-    <sheet name="Fluid" sheetId="30" r:id="rId6"/>
-    <sheet name="Fluid-Gina" sheetId="32" r:id="rId7"/>
-    <sheet name="Fluid(HKF)" sheetId="27" r:id="rId8"/>
-    <sheet name="Si-Fluid(DEW)" sheetId="31" r:id="rId9"/>
-    <sheet name="Fluid(DEW)" sheetId="28" r:id="rId10"/>
-    <sheet name="Fluid-COH(DEW)" sheetId="29" r:id="rId11"/>
-    <sheet name="Fluid-CO2-H2O" sheetId="20" r:id="rId12"/>
-    <sheet name="Melt" sheetId="5" r:id="rId13"/>
-    <sheet name="Garnet" sheetId="3" r:id="rId14"/>
-    <sheet name="Clinopyroxene" sheetId="6" r:id="rId15"/>
-    <sheet name="Spinel" sheetId="4" r:id="rId16"/>
-    <sheet name="Chlorite" sheetId="7" r:id="rId17"/>
-    <sheet name="Amphibole" sheetId="16" r:id="rId18"/>
-    <sheet name="Feldspar(C1)" sheetId="17" r:id="rId19"/>
-    <sheet name="Muscovite" sheetId="8" r:id="rId20"/>
-    <sheet name="Biotite" sheetId="9" r:id="rId21"/>
-    <sheet name="Staurolite" sheetId="10" r:id="rId22"/>
-    <sheet name="Chloritoid" sheetId="11" r:id="rId23"/>
-    <sheet name="Cordierite" sheetId="12" r:id="rId24"/>
-    <sheet name="Talc" sheetId="13" r:id="rId25"/>
-    <sheet name="Brucite" sheetId="15" r:id="rId26"/>
-    <sheet name="Antigorite" sheetId="14" r:id="rId27"/>
-    <sheet name="Magnesite" sheetId="18" r:id="rId28"/>
-    <sheet name="Dolomite" sheetId="21" r:id="rId29"/>
-    <sheet name="Melt(W07)" sheetId="19" r:id="rId30"/>
-    <sheet name="Epidote" sheetId="22" r:id="rId31"/>
-    <sheet name="Ilmenite" sheetId="23" r:id="rId32"/>
-    <sheet name="Carbonate" sheetId="43" r:id="rId33"/>
+    <sheet name="Topaz(DB)" sheetId="47" r:id="rId1"/>
+    <sheet name="Topaz" sheetId="44" r:id="rId2"/>
+    <sheet name="Fluid-KCl-NaCl-HF-H2O" sheetId="45" r:id="rId3"/>
+    <sheet name="Fluid(KF)" sheetId="48" r:id="rId4"/>
+    <sheet name="Fluid(HF)" sheetId="46" r:id="rId5"/>
+    <sheet name="Orthopyroxene" sheetId="1" r:id="rId6"/>
+    <sheet name="Olivine" sheetId="2" r:id="rId7"/>
+    <sheet name="Fluid" sheetId="30" r:id="rId8"/>
+    <sheet name="Fluid-Gina" sheetId="32" r:id="rId9"/>
+    <sheet name="Fluid(HKF)" sheetId="27" r:id="rId10"/>
+    <sheet name="Si-Fluid(DEW)" sheetId="31" r:id="rId11"/>
+    <sheet name="Fluid(DEW)" sheetId="28" r:id="rId12"/>
+    <sheet name="Fluid-COH(DEW)" sheetId="29" r:id="rId13"/>
+    <sheet name="Fluid-CO2-H2O" sheetId="20" r:id="rId14"/>
+    <sheet name="Melt" sheetId="5" r:id="rId15"/>
+    <sheet name="Garnet" sheetId="3" r:id="rId16"/>
+    <sheet name="Clinopyroxene" sheetId="6" r:id="rId17"/>
+    <sheet name="Spinel" sheetId="4" r:id="rId18"/>
+    <sheet name="Chlorite" sheetId="7" r:id="rId19"/>
+    <sheet name="Amphibole" sheetId="16" r:id="rId20"/>
+    <sheet name="Feldspar(C1)" sheetId="17" r:id="rId21"/>
+    <sheet name="Muscovite" sheetId="8" r:id="rId22"/>
+    <sheet name="Biotite" sheetId="9" r:id="rId23"/>
+    <sheet name="Staurolite" sheetId="10" r:id="rId24"/>
+    <sheet name="Chloritoid" sheetId="11" r:id="rId25"/>
+    <sheet name="Cordierite" sheetId="12" r:id="rId26"/>
+    <sheet name="Talc" sheetId="13" r:id="rId27"/>
+    <sheet name="Brucite" sheetId="15" r:id="rId28"/>
+    <sheet name="Antigorite" sheetId="14" r:id="rId29"/>
+    <sheet name="Magnesite" sheetId="18" r:id="rId30"/>
+    <sheet name="Dolomite" sheetId="21" r:id="rId31"/>
+    <sheet name="Melt(W07)" sheetId="19" r:id="rId32"/>
+    <sheet name="Epidote" sheetId="22" r:id="rId33"/>
+    <sheet name="Ilmenite" sheetId="23" r:id="rId34"/>
+    <sheet name="Carbonate" sheetId="43" r:id="rId35"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="242">
   <si>
     <t>M1</t>
   </si>
@@ -780,6 +782,18 @@
   </si>
   <si>
     <t>syvL,tc-ds55</t>
+  </si>
+  <si>
+    <t>Tpz,DB04</t>
+  </si>
+  <si>
+    <t>tpz,tc-ds55</t>
+  </si>
+  <si>
+    <t>KF,l</t>
+  </si>
+  <si>
+    <t>Crb(L),DB04</t>
   </si>
 </sst>
 </file>
@@ -1141,11 +1155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A52A1-8E69-4BEB-9269-06CD9B09B9F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154B7B51-4D1B-4AB8-AB29-EF22BC159F40}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1199,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1196,7 +1210,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1246,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1285,6 +1299,482 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAA6765-2407-4F4F-A32A-598882C0512E}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="C16">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D16">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="E16">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="F16">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD62192-8E34-497C-BD04-287E1BB77201}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E92E78-D983-4903-91A9-64BA754046E5}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -1574,7 +2064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803A8208-A09C-4A54-A415-B469DB7E76CD}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -1760,7 +2250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569EFB72-6CF1-4625-86CA-B60F3C35A306}">
   <dimension ref="A1:C31"/>
   <sheetViews>
@@ -2025,7 +2515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7D3560-73FF-4245-80DE-49DB35A6A3BB}">
   <dimension ref="A1:M39"/>
   <sheetViews>
@@ -2576,7 +3066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33B391C-3BF6-4AAF-B42F-3471336276EC}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -3147,7 +3637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8622EBC-6B59-41C1-A0B5-B72AB8142590}">
   <dimension ref="A1:M51"/>
   <sheetViews>
@@ -4122,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925AD246-7441-4532-9250-4463A90017EB}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -4277,7 +4767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EC53B8-E4AC-4382-998D-57A5668183D5}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -4738,7 +5228,151 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A52A1-8E69-4BEB-9269-06CD9B09B9F3}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161DBCB5-5176-4DC9-88DC-4D37E7E0DE9B}">
   <dimension ref="A1:L29"/>
   <sheetViews>
@@ -5433,7 +6067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5DB00F-1DA4-4360-9CC7-4924D3BDF29C}">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -5820,224 +6454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C43B4D-DBF5-4BEE-9E07-2025E4174D4D}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C15">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D15">
-        <f>1/150</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="E15">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D256944-9887-4D01-B486-8A5A88556D98}">
   <dimension ref="A1:K39"/>
   <sheetViews>
@@ -6715,7 +7132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107EBBF7-8126-4698-9154-55A6781978E0}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -7425,7 +7842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D2FF73-BF3D-4FFA-991C-ADB00E1AEB98}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -7647,7 +8064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43D4CC9-B60B-4FFB-8E97-63A544C61A1B}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -7866,7 +8283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62433996-6A78-4C42-B701-F94A76CD98CF}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -8109,7 +8526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5EA3B8-30F6-4ECC-A8AF-020A464756E5}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -8415,7 +8832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1619535-04D6-4815-919C-E25105CD6D69}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -8537,7 +8954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEF32A7-DCB4-44DF-8E85-765EC52F830F}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -8838,7 +9255,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C43B4D-DBF5-4BEE-9E07-2025E4174D4D}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C15">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D15">
+        <f>1/150</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="E15">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DDF854-756B-42A7-A515-A9979CF28555}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -8996,7 +9630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2BDD3-56BF-46F4-A969-6F5E44BC336D}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -9151,151 +9785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C23DCE1-FC10-453A-8F90-83C574607817}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13">
-        <v>1E-3</v>
-      </c>
-      <c r="C13">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29BE789-FCEE-4419-8EA0-B9924A6B0C51}">
   <dimension ref="A1:K40"/>
   <sheetViews>
@@ -10393,7 +10883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA318424-9D96-4EC8-B79D-40733A02CEEE}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -10644,7 +11134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9EB150-1CC6-4D02-B1FA-7952EA79D5E4}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -11009,7 +11499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19F705E-B507-46E8-8605-FAA28F99A6BF}">
   <dimension ref="A1:J36"/>
   <sheetViews>
@@ -11737,6 +12227,294 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55B8379-1D47-4684-BEF7-571E5938C87F}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C23DCE1-FC10-453A-8F90-83C574607817}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FAD609-BFE4-4989-8D42-7B6F6A555D68}">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -12104,7 +12882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E025F4-E361-4958-BD02-86193FE4243D}">
   <dimension ref="A1:F35"/>
   <sheetViews>
@@ -12510,7 +13288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F513AF9-4CF4-4C01-A710-D9D84BD97F48}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -12655,7 +13433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974FB36A-7EB3-4FC2-ACD5-C5E0B3694BD4}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -12941,480 +13719,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAA6765-2407-4F4F-A32A-598882C0512E}">
-  <dimension ref="A1:L21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15">
-        <v>0.1</v>
-      </c>
-      <c r="C15">
-        <v>0.1</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15">
-        <v>0.1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16">
-        <f>1/90</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="C16">
-        <f>1/90</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="D16">
-        <f>1/90</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="E16">
-        <f>1/90</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="F16">
-        <f>1/90</f>
-        <v>1.1111111111111112E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD62192-8E34-497C-BD04-287E1BB77201}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13">
-        <v>0.2</v>
-      </c>
-      <c r="C13">
-        <v>0.2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14">
-        <v>0.01</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>